--- a/media/output/result/Production_Ncomplex_evaluation_weighted_edit_distance0.25,0.5,0.25.xlsx
+++ b/media/output/result/Production_Ncomplex_evaluation_weighted_edit_distance0.25,0.5,0.25.xlsx
@@ -650,10 +650,10 @@
         <v>19</v>
       </c>
       <c r="C8" t="n">
-        <v>22</v>
+        <v>12</v>
       </c>
       <c r="D8" t="n">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="E8" t="n">
         <v>0</v>
@@ -662,13 +662,13 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>0.6285714285714286</v>
+        <v>0.631578947368421</v>
       </c>
       <c r="H8" t="n">
         <v>1</v>
       </c>
       <c r="I8" t="n">
-        <v>0.7719298245614035</v>
+        <v>0.7741935483870968</v>
       </c>
     </row>
     <row r="9">
@@ -679,10 +679,10 @@
         <v>18</v>
       </c>
       <c r="C9" t="n">
-        <v>20</v>
+        <v>11</v>
       </c>
       <c r="D9" t="n">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="E9" t="n">
         <v>0</v>
@@ -691,13 +691,13 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>0.6060606060606061</v>
+        <v>0.6111111111111112</v>
       </c>
       <c r="H9" t="n">
         <v>1</v>
       </c>
       <c r="I9" t="n">
-        <v>0.7547169811320755</v>
+        <v>0.7586206896551725</v>
       </c>
     </row>
     <row r="10">
@@ -708,10 +708,10 @@
         <v>13</v>
       </c>
       <c r="C10" t="n">
-        <v>15</v>
+        <v>8</v>
       </c>
       <c r="D10" t="n">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="E10" t="n">
         <v>0</v>
@@ -720,13 +720,13 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0.625</v>
+        <v>0.6153846153846154</v>
       </c>
       <c r="H10" t="n">
         <v>1</v>
       </c>
       <c r="I10" t="n">
-        <v>0.7692307692307693</v>
+        <v>0.761904761904762</v>
       </c>
     </row>
     <row r="11">
@@ -737,10 +737,10 @@
         <v>9</v>
       </c>
       <c r="C11" t="n">
-        <v>19</v>
+        <v>6</v>
       </c>
       <c r="D11" t="n">
-        <v>11</v>
+        <v>3</v>
       </c>
       <c r="E11" t="n">
         <v>0</v>
@@ -749,13 +749,13 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>0.6333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="H11" t="n">
         <v>1</v>
       </c>
       <c r="I11" t="n">
-        <v>0.7755102040816326</v>
+        <v>0.8</v>
       </c>
     </row>
   </sheetData>

--- a/media/output/result/Production_Ncomplex_evaluation_weighted_edit_distance0.25,0.5,0.25.xlsx
+++ b/media/output/result/Production_Ncomplex_evaluation_weighted_edit_distance0.25,0.5,0.25.xlsx
@@ -737,10 +737,10 @@
         <v>9</v>
       </c>
       <c r="C11" t="n">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="E11" t="n">
         <v>0</v>
@@ -749,13 +749,13 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>0.6666666666666666</v>
+        <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>0.8</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/media/output/result/Production_Ncomplex_evaluation_weighted_edit_distance0.25,0.5,0.25.xlsx
+++ b/media/output/result/Production_Ncomplex_evaluation_weighted_edit_distance0.25,0.5,0.25.xlsx
@@ -737,10 +737,10 @@
         <v>9</v>
       </c>
       <c r="C11" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="D11" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="E11" t="n">
         <v>0</v>
@@ -749,13 +749,13 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>0</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I11" t="n">
-        <v>0</v>
+        <v>0.8</v>
       </c>
     </row>
   </sheetData>
